--- a/WIP/Documents/Report 5/Test Result/WS_CommonTest Case_v1.0_EN .xlsx
+++ b/WIP/Documents/Report 5/Test Result/WS_CommonTest Case_v1.0_EN .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WingS\201609JS01\201609JS01\WIP\Documents\Report 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WingS\201609JS01\WIP\Documents\Report 5\Test Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="7260" tabRatio="821" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="7260" tabRatio="821" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test case List" sheetId="2" r:id="rId1"/>
@@ -3243,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -6400,7 +6400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
